--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T19:07:59-05:00</t>
+    <t>2025-06-24T13:00:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1977,7 +1977,7 @@
     <t>Drives the behavior associated with this message.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/rtlsMessageEvents</t>
+    <t>http://hl7.org/fhir/uv/rtls/ValueSet/rtlsMessageEvents</t>
   </si>
   <si>
     <t>MessageHeader.destination</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:00:09-05:00</t>
+    <t>2025-06-24T13:13:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:13:18-05:00</t>
+    <t>2025-06-24T13:15:27-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:15:27-05:00</t>
+    <t>2025-06-24T13:30:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -21473,7 +21473,7 @@
         <v>85</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J176" t="s" s="2">
         <v>77</v>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:30:24-05:00</t>
+    <t>2025-06-24T13:47:41-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,13 +66,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:47:41-05:00</t>
+    <t>2025-06-25T12:47:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - Patient Administration Work Group</t>
+    <t>HL7 International / Patient Administration</t>
   </si>
   <si>
     <t>Contact</t>
@@ -1526,7 +1526,7 @@
     <t>Bundle.type</t>
   </si>
   <si>
-    <t>message | subscription-notification</t>
+    <t>message</t>
   </si>
   <si>
     <t>Indicates the purpose of this bundle - how it is intended to be used.</t>
@@ -1621,7 +1621,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>For bundles of type "message", the first entry resource must be MessageHeader. For bundles of type "subscription-notification", the first entry resource must be SubscriptionStatus).</t>
+    <t>For bundles of type "message", the first entry resource must be MessageHeader.</t>
   </si>
   <si>
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T12:47:47-05:00</t>
+    <t>2025-07-29T13:31:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3131,17 +3131,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.48828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="36.48828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="33.26953125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.5625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.5625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.9375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3150,21 +3150,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="6.83203125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="7.80078125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.09375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="140.34375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="57.46484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="16.2578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.54296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="32.29296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.22265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="59.92578125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="33.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.51953125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T14:07:30-05:00</t>
+    <t>2025-08-05T17:07:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:07:14-05:00</t>
+    <t>2025-08-05T17:18:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:18:07-05:00</t>
+    <t>2025-08-06T08:42:49-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T08:42:49-05:00</t>
+    <t>2025-08-06T11:48:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T11:48:33-05:00</t>
+    <t>2025-08-06T12:28:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T12:28:55-05:00</t>
+    <t>2025-08-07T11:40:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-07T11:40:07-05:00</t>
+    <t>2025-08-07T11:52:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
